--- a/processor/newcases_vs_total.xlsx
+++ b/processor/newcases_vs_total.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Canada</t>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -374,513 +386,3667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>996</v>
+      </c>
+      <c r="C3">
+        <v>773</v>
+      </c>
+      <c r="D3">
+        <v>871</v>
+      </c>
+      <c r="E3">
+        <v>783</v>
+      </c>
+      <c r="F3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1572</v>
+      </c>
+      <c r="C4">
+        <v>1969</v>
+      </c>
+      <c r="D4">
+        <v>1807</v>
+      </c>
+      <c r="E4">
+        <v>1398</v>
+      </c>
+      <c r="F4">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3000</v>
       </c>
       <c r="B5">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>2453</v>
+      </c>
+      <c r="C5">
+        <v>2378</v>
+      </c>
+      <c r="D5">
+        <v>2689</v>
+      </c>
+      <c r="E5">
+        <v>2119</v>
+      </c>
+      <c r="F5">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4000</v>
       </c>
       <c r="B6">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>3048</v>
+      </c>
+      <c r="C6">
+        <v>2948</v>
+      </c>
+      <c r="D6">
+        <v>3208</v>
+      </c>
+      <c r="E6">
+        <v>3113</v>
+      </c>
+      <c r="F6">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5000</v>
       </c>
       <c r="B7">
-        <v>3704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>4297</v>
+      </c>
+      <c r="C7">
+        <v>3936</v>
+      </c>
+      <c r="D7">
+        <v>3748</v>
+      </c>
+      <c r="E7">
+        <v>3467</v>
+      </c>
+      <c r="F7">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6000</v>
       </c>
       <c r="B8">
-        <v>4825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>4297</v>
+      </c>
+      <c r="C8">
+        <v>4873</v>
+      </c>
+      <c r="D8">
+        <v>4755</v>
+      </c>
+      <c r="E8">
+        <v>4507</v>
+      </c>
+      <c r="F8">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7000</v>
       </c>
       <c r="B9">
-        <v>5778</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>5221</v>
+      </c>
+      <c r="C9">
+        <v>5860</v>
+      </c>
+      <c r="D9">
+        <v>5686</v>
+      </c>
+      <c r="E9">
+        <v>5160</v>
+      </c>
+      <c r="F9">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8000</v>
       </c>
       <c r="B10">
-        <v>6577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>5946</v>
+      </c>
+      <c r="C10">
+        <v>6631</v>
+      </c>
+      <c r="D10">
+        <v>5686</v>
+      </c>
+      <c r="E10">
+        <v>5160</v>
+      </c>
+      <c r="F10">
+        <v>6127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9000</v>
       </c>
       <c r="B11">
-        <v>6577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>6853</v>
+      </c>
+      <c r="C11">
+        <v>6631</v>
+      </c>
+      <c r="D11">
+        <v>7136</v>
+      </c>
+      <c r="E11">
+        <v>5895</v>
+      </c>
+      <c r="F11">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10000</v>
       </c>
       <c r="B12">
-        <v>6210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>6853</v>
+      </c>
+      <c r="C12">
+        <v>6631</v>
+      </c>
+      <c r="D12">
+        <v>7647</v>
+      </c>
+      <c r="E12">
+        <v>6583</v>
+      </c>
+      <c r="F12">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11000</v>
       </c>
       <c r="B13">
-        <v>7250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>8119</v>
+      </c>
+      <c r="C13">
+        <v>6631</v>
+      </c>
+      <c r="D13">
+        <v>7647</v>
+      </c>
+      <c r="E13">
+        <v>6583</v>
+      </c>
+      <c r="F13">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12000</v>
       </c>
       <c r="B14">
-        <v>7844</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>8951</v>
+      </c>
+      <c r="C14">
+        <v>11769</v>
+      </c>
+      <c r="D14">
+        <v>9373</v>
+      </c>
+      <c r="E14">
+        <v>7768</v>
+      </c>
+      <c r="F14">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13000</v>
       </c>
       <c r="B15">
-        <v>7844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>8951</v>
+      </c>
+      <c r="C15">
+        <v>11769</v>
+      </c>
+      <c r="D15">
+        <v>9373</v>
+      </c>
+      <c r="E15">
+        <v>8853</v>
+      </c>
+      <c r="F15">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14000</v>
       </c>
       <c r="B16">
-        <v>8496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>9960</v>
+      </c>
+      <c r="C16">
+        <v>11769</v>
+      </c>
+      <c r="D16">
+        <v>11255</v>
+      </c>
+      <c r="E16">
+        <v>8853</v>
+      </c>
+      <c r="F16">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15000</v>
       </c>
       <c r="B17">
-        <v>9241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>9960</v>
+      </c>
+      <c r="C17">
+        <v>11769</v>
+      </c>
+      <c r="D17">
+        <v>11255</v>
+      </c>
+      <c r="E17">
+        <v>10381</v>
+      </c>
+      <c r="F17">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16000</v>
       </c>
       <c r="B18">
-        <v>9241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>10595</v>
+      </c>
+      <c r="C18">
+        <v>11769</v>
+      </c>
+      <c r="D18">
+        <v>11255</v>
+      </c>
+      <c r="E18">
+        <v>10381</v>
+      </c>
+      <c r="F18">
+        <v>12071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17000</v>
       </c>
       <c r="B19">
-        <v>9229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>10595</v>
+      </c>
+      <c r="C19">
+        <v>15125</v>
+      </c>
+      <c r="D19">
+        <v>13024</v>
+      </c>
+      <c r="E19">
+        <v>10381</v>
+      </c>
+      <c r="F19">
+        <v>12071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18000</v>
       </c>
       <c r="B20">
-        <v>9347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>13223</v>
+      </c>
+      <c r="C20">
+        <v>15125</v>
+      </c>
+      <c r="D20">
+        <v>13024</v>
+      </c>
+      <c r="E20">
+        <v>11985</v>
+      </c>
+      <c r="F20">
+        <v>12071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19000</v>
       </c>
       <c r="B21">
-        <v>9679</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>13223</v>
+      </c>
+      <c r="C21">
+        <v>15125</v>
+      </c>
+      <c r="D21">
+        <v>13024</v>
+      </c>
+      <c r="E21">
+        <v>11985</v>
+      </c>
+      <c r="F21">
+        <v>13839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20000</v>
       </c>
       <c r="B22">
-        <v>9679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>13223</v>
+      </c>
+      <c r="C22">
+        <v>17668</v>
+      </c>
+      <c r="D22">
+        <v>15274</v>
+      </c>
+      <c r="E22">
+        <v>13605</v>
+      </c>
+      <c r="F22">
+        <v>13839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21000</v>
       </c>
       <c r="B23">
-        <v>9480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>13223</v>
+      </c>
+      <c r="C23">
+        <v>17668</v>
+      </c>
+      <c r="D23">
+        <v>15274</v>
+      </c>
+      <c r="E23">
+        <v>13605</v>
+      </c>
+      <c r="F23">
+        <v>15491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22000</v>
       </c>
       <c r="B24">
-        <v>9614</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>14572</v>
+      </c>
+      <c r="C24">
+        <v>17668</v>
+      </c>
+      <c r="D24">
+        <v>15274</v>
+      </c>
+      <c r="E24">
+        <v>13605</v>
+      </c>
+      <c r="F24">
+        <v>15491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23000</v>
       </c>
       <c r="B25">
-        <v>9419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>14572</v>
+      </c>
+      <c r="C25">
+        <v>17668</v>
+      </c>
+      <c r="D25">
+        <v>16605</v>
+      </c>
+      <c r="E25">
+        <v>15818</v>
+      </c>
+      <c r="F25">
+        <v>15491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24000</v>
       </c>
       <c r="B26">
-        <v>8869</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>16099</v>
+      </c>
+      <c r="C26">
+        <v>19936</v>
+      </c>
+      <c r="D26">
+        <v>16605</v>
+      </c>
+      <c r="E26">
+        <v>15818</v>
+      </c>
+      <c r="F26">
+        <v>17073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25000</v>
       </c>
       <c r="B27">
-        <v>8869</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>16099</v>
+      </c>
+      <c r="C27">
+        <v>19936</v>
+      </c>
+      <c r="D27">
+        <v>16605</v>
+      </c>
+      <c r="E27">
+        <v>15818</v>
+      </c>
+      <c r="F27">
+        <v>17073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26000</v>
       </c>
       <c r="B28">
-        <v>9010</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>16099</v>
+      </c>
+      <c r="C28">
+        <v>19936</v>
+      </c>
+      <c r="D28">
+        <v>18808</v>
+      </c>
+      <c r="E28">
+        <v>15818</v>
+      </c>
+      <c r="F28">
+        <v>17073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27000</v>
       </c>
       <c r="B29">
-        <v>9163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>16099</v>
+      </c>
+      <c r="C29">
+        <v>23200</v>
+      </c>
+      <c r="D29">
+        <v>18808</v>
+      </c>
+      <c r="E29">
+        <v>17807</v>
+      </c>
+      <c r="F29">
+        <v>17073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28000</v>
       </c>
       <c r="B30">
-        <v>9090</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>18160</v>
+      </c>
+      <c r="C30">
+        <v>23200</v>
+      </c>
+      <c r="D30">
+        <v>18808</v>
+      </c>
+      <c r="E30">
+        <v>17807</v>
+      </c>
+      <c r="F30">
+        <v>19945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29000</v>
       </c>
       <c r="B31">
-        <v>9090</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>18160</v>
+      </c>
+      <c r="C31">
+        <v>23200</v>
+      </c>
+      <c r="D31">
+        <v>18808</v>
+      </c>
+      <c r="E31">
+        <v>17807</v>
+      </c>
+      <c r="F31">
+        <v>19945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30000</v>
       </c>
       <c r="B32">
-        <v>9333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>18160</v>
+      </c>
+      <c r="C32">
+        <v>23200</v>
+      </c>
+      <c r="D32">
+        <v>21357</v>
+      </c>
+      <c r="E32">
+        <v>20091</v>
+      </c>
+      <c r="F32">
+        <v>19945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31000</v>
       </c>
       <c r="B33">
-        <v>9739</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>18160</v>
+      </c>
+      <c r="C33">
+        <v>24398</v>
+      </c>
+      <c r="D33">
+        <v>21357</v>
+      </c>
+      <c r="E33">
+        <v>20091</v>
+      </c>
+      <c r="F33">
+        <v>19945</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32000</v>
       </c>
       <c r="B34">
-        <v>9739</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>20352</v>
+      </c>
+      <c r="C34">
+        <v>24398</v>
+      </c>
+      <c r="D34">
+        <v>21357</v>
+      </c>
+      <c r="E34">
+        <v>20091</v>
+      </c>
+      <c r="F34">
+        <v>22060</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33000</v>
       </c>
       <c r="B35">
-        <v>10040</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>20352</v>
+      </c>
+      <c r="C35">
+        <v>24398</v>
+      </c>
+      <c r="D35">
+        <v>21357</v>
+      </c>
+      <c r="E35">
+        <v>20091</v>
+      </c>
+      <c r="F35">
+        <v>22060</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34000</v>
       </c>
       <c r="B36">
-        <v>10040</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>20352</v>
+      </c>
+      <c r="C36">
+        <v>24398</v>
+      </c>
+      <c r="D36">
+        <v>23251</v>
+      </c>
+      <c r="E36">
+        <v>20091</v>
+      </c>
+      <c r="F36">
+        <v>22060</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35000</v>
       </c>
       <c r="B37">
-        <v>10412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>20352</v>
+      </c>
+      <c r="C37">
+        <v>28310</v>
+      </c>
+      <c r="D37">
+        <v>23251</v>
+      </c>
+      <c r="E37">
+        <v>23209</v>
+      </c>
+      <c r="F37">
+        <v>22060</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36000</v>
       </c>
       <c r="B38">
-        <v>11160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>23116</v>
+      </c>
+      <c r="C38">
+        <v>28310</v>
+      </c>
+      <c r="D38">
+        <v>23251</v>
+      </c>
+      <c r="E38">
+        <v>23209</v>
+      </c>
+      <c r="F38">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37000</v>
       </c>
       <c r="B39">
-        <v>11160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>23116</v>
+      </c>
+      <c r="C39">
+        <v>28310</v>
+      </c>
+      <c r="D39">
+        <v>23251</v>
+      </c>
+      <c r="E39">
+        <v>23209</v>
+      </c>
+      <c r="F39">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38000</v>
       </c>
       <c r="B40">
-        <v>11367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>23116</v>
+      </c>
+      <c r="C40">
+        <v>28310</v>
+      </c>
+      <c r="D40">
+        <v>23251</v>
+      </c>
+      <c r="E40">
+        <v>23209</v>
+      </c>
+      <c r="F40">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39000</v>
       </c>
       <c r="B41">
-        <v>11367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>24156</v>
+      </c>
+      <c r="C41">
+        <v>28310</v>
+      </c>
+      <c r="D41">
+        <v>25922</v>
+      </c>
+      <c r="E41">
+        <v>23209</v>
+      </c>
+      <c r="F41">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40000</v>
       </c>
       <c r="B42">
-        <v>11815</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>24156</v>
+      </c>
+      <c r="C42">
+        <v>28150</v>
+      </c>
+      <c r="D42">
+        <v>25922</v>
+      </c>
+      <c r="E42">
+        <v>27083</v>
+      </c>
+      <c r="F42">
+        <v>23625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41000</v>
       </c>
       <c r="B43">
-        <v>11815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>24156</v>
+      </c>
+      <c r="C43">
+        <v>28150</v>
+      </c>
+      <c r="D43">
+        <v>25922</v>
+      </c>
+      <c r="E43">
+        <v>27083</v>
+      </c>
+      <c r="F43">
+        <v>24814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42000</v>
       </c>
       <c r="B44">
-        <v>12018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>24156</v>
+      </c>
+      <c r="C44">
+        <v>28150</v>
+      </c>
+      <c r="D44">
+        <v>25922</v>
+      </c>
+      <c r="E44">
+        <v>27083</v>
+      </c>
+      <c r="F44">
+        <v>24814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43000</v>
       </c>
       <c r="B45">
-        <v>12005</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>24694</v>
+      </c>
+      <c r="C45">
+        <v>28150</v>
+      </c>
+      <c r="D45">
+        <v>25922</v>
+      </c>
+      <c r="E45">
+        <v>27083</v>
+      </c>
+      <c r="F45">
+        <v>24814</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44000</v>
       </c>
       <c r="B46">
-        <v>12005</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>24694</v>
+      </c>
+      <c r="C46">
+        <v>28150</v>
+      </c>
+      <c r="D46">
+        <v>25922</v>
+      </c>
+      <c r="E46">
+        <v>27083</v>
+      </c>
+      <c r="F46">
+        <v>24814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45000</v>
       </c>
       <c r="B47">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>24694</v>
+      </c>
+      <c r="C47">
+        <v>28150</v>
+      </c>
+      <c r="D47">
+        <v>29361</v>
+      </c>
+      <c r="E47">
+        <v>28793</v>
+      </c>
+      <c r="F47">
+        <v>28284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46000</v>
       </c>
       <c r="B48">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>24694</v>
+      </c>
+      <c r="C48">
+        <v>30395</v>
+      </c>
+      <c r="D48">
+        <v>29361</v>
+      </c>
+      <c r="E48">
+        <v>28793</v>
+      </c>
+      <c r="F48">
+        <v>28284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47000</v>
       </c>
       <c r="B49">
-        <v>12107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>24694</v>
+      </c>
+      <c r="C49">
+        <v>30395</v>
+      </c>
+      <c r="D49">
+        <v>29361</v>
+      </c>
+      <c r="E49">
+        <v>28793</v>
+      </c>
+      <c r="F49">
+        <v>28284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48000</v>
       </c>
       <c r="B50">
-        <v>11666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>24694</v>
+      </c>
+      <c r="C50">
+        <v>30395</v>
+      </c>
+      <c r="D50">
+        <v>29361</v>
+      </c>
+      <c r="E50">
+        <v>28793</v>
+      </c>
+      <c r="F50">
+        <v>28284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49000</v>
       </c>
       <c r="B51">
-        <v>11666</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>29826</v>
+      </c>
+      <c r="C51">
+        <v>30395</v>
+      </c>
+      <c r="D51">
+        <v>29361</v>
+      </c>
+      <c r="E51">
+        <v>28793</v>
+      </c>
+      <c r="F51">
+        <v>28284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50000</v>
       </c>
       <c r="B52">
-        <v>11602</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>29826</v>
+      </c>
+      <c r="C52">
+        <v>30395</v>
+      </c>
+      <c r="D52">
+        <v>29361</v>
+      </c>
+      <c r="E52">
+        <v>31661</v>
+      </c>
+      <c r="F52">
+        <v>29467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51000</v>
       </c>
       <c r="B53">
-        <v>11408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>29826</v>
+      </c>
+      <c r="C53">
+        <v>31084</v>
+      </c>
+      <c r="D53">
+        <v>32421</v>
+      </c>
+      <c r="E53">
+        <v>31661</v>
+      </c>
+      <c r="F53">
+        <v>29467</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52000</v>
       </c>
       <c r="B54">
-        <v>11408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>29826</v>
+      </c>
+      <c r="C54">
+        <v>31084</v>
+      </c>
+      <c r="D54">
+        <v>32421</v>
+      </c>
+      <c r="E54">
+        <v>31661</v>
+      </c>
+      <c r="F54">
+        <v>29467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53000</v>
       </c>
       <c r="B55">
-        <v>11137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>29826</v>
+      </c>
+      <c r="C55">
+        <v>31084</v>
+      </c>
+      <c r="D55">
+        <v>32421</v>
+      </c>
+      <c r="E55">
+        <v>31661</v>
+      </c>
+      <c r="F55">
+        <v>29467</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54000</v>
       </c>
       <c r="B56">
-        <v>11137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>29826</v>
+      </c>
+      <c r="C56">
+        <v>31084</v>
+      </c>
+      <c r="D56">
+        <v>32421</v>
+      </c>
+      <c r="E56">
+        <v>31661</v>
+      </c>
+      <c r="F56">
+        <v>30092</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55000</v>
       </c>
       <c r="B57">
-        <v>11184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>31756</v>
+      </c>
+      <c r="C57">
+        <v>32524</v>
+      </c>
+      <c r="D57">
+        <v>32421</v>
+      </c>
+      <c r="E57">
+        <v>31661</v>
+      </c>
+      <c r="F57">
+        <v>30092</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56000</v>
       </c>
       <c r="B58">
-        <v>11373</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>31756</v>
+      </c>
+      <c r="C58">
+        <v>32524</v>
+      </c>
+      <c r="D58">
+        <v>32421</v>
+      </c>
+      <c r="E58">
+        <v>33509</v>
+      </c>
+      <c r="F58">
+        <v>30092</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57000</v>
       </c>
       <c r="B59">
-        <v>11373</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>31756</v>
+      </c>
+      <c r="C59">
+        <v>32524</v>
+      </c>
+      <c r="D59">
+        <v>35158</v>
+      </c>
+      <c r="E59">
+        <v>33509</v>
+      </c>
+      <c r="F59">
+        <v>30092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58000</v>
       </c>
       <c r="B60">
-        <v>11373</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>31756</v>
+      </c>
+      <c r="C60">
+        <v>32524</v>
+      </c>
+      <c r="D60">
+        <v>35158</v>
+      </c>
+      <c r="E60">
+        <v>33509</v>
+      </c>
+      <c r="F60">
+        <v>31259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59000</v>
       </c>
       <c r="B61">
-        <v>12590</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>29950</v>
+      </c>
+      <c r="C61">
+        <v>32524</v>
+      </c>
+      <c r="D61">
+        <v>35158</v>
+      </c>
+      <c r="E61">
+        <v>33509</v>
+      </c>
+      <c r="F61">
+        <v>31259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>12590</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>29950</v>
+      </c>
+      <c r="C62">
+        <v>32701</v>
+      </c>
+      <c r="D62">
+        <v>35158</v>
+      </c>
+      <c r="E62">
+        <v>33509</v>
+      </c>
+      <c r="F62">
+        <v>31259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61000</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="B63">
+        <v>29950</v>
+      </c>
+      <c r="C63">
+        <v>32701</v>
+      </c>
+      <c r="D63">
+        <v>35158</v>
+      </c>
+      <c r="E63">
+        <v>34835</v>
+      </c>
+      <c r="F63">
+        <v>31259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62000</v>
+      </c>
+      <c r="B64">
+        <v>31374</v>
+      </c>
+      <c r="C64">
+        <v>32701</v>
+      </c>
+      <c r="D64">
+        <v>35947</v>
+      </c>
+      <c r="E64">
+        <v>34835</v>
+      </c>
+      <c r="F64">
+        <v>31259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63000</v>
+      </c>
+      <c r="B65">
+        <v>31374</v>
+      </c>
+      <c r="C65">
+        <v>32701</v>
+      </c>
+      <c r="D65">
+        <v>35947</v>
+      </c>
+      <c r="E65">
+        <v>34835</v>
+      </c>
+      <c r="F65">
+        <v>31359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64000</v>
+      </c>
+      <c r="B66">
+        <v>31374</v>
+      </c>
+      <c r="C66">
+        <v>32701</v>
+      </c>
+      <c r="D66">
+        <v>35947</v>
+      </c>
+      <c r="E66">
+        <v>34835</v>
+      </c>
+      <c r="F66">
+        <v>31359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65000</v>
+      </c>
+      <c r="B67">
+        <v>31374</v>
+      </c>
+      <c r="C67">
+        <v>35812</v>
+      </c>
+      <c r="D67">
+        <v>35947</v>
+      </c>
+      <c r="E67">
+        <v>34835</v>
+      </c>
+      <c r="F67">
+        <v>31359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66000</v>
+      </c>
+      <c r="B68">
+        <v>31374</v>
+      </c>
+      <c r="C68">
+        <v>35812</v>
+      </c>
+      <c r="D68">
+        <v>35947</v>
+      </c>
+      <c r="E68">
+        <v>36614</v>
+      </c>
+      <c r="F68">
+        <v>31359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67000</v>
+      </c>
+      <c r="B69">
+        <v>31030</v>
+      </c>
+      <c r="C69">
+        <v>35812</v>
+      </c>
+      <c r="D69">
+        <v>37670</v>
+      </c>
+      <c r="E69">
+        <v>36614</v>
+      </c>
+      <c r="F69">
+        <v>31359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68000</v>
+      </c>
+      <c r="B70">
+        <v>31030</v>
+      </c>
+      <c r="C70">
+        <v>35812</v>
+      </c>
+      <c r="D70">
+        <v>37670</v>
+      </c>
+      <c r="E70">
+        <v>36614</v>
+      </c>
+      <c r="F70">
+        <v>32104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69000</v>
+      </c>
+      <c r="B71">
+        <v>31030</v>
+      </c>
+      <c r="C71">
+        <v>35812</v>
+      </c>
+      <c r="D71">
+        <v>37670</v>
+      </c>
+      <c r="E71">
+        <v>36614</v>
+      </c>
+      <c r="F71">
+        <v>32104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B72">
+        <v>30304</v>
+      </c>
+      <c r="C72">
+        <v>35812</v>
+      </c>
+      <c r="D72">
+        <v>37670</v>
+      </c>
+      <c r="E72">
+        <v>36614</v>
+      </c>
+      <c r="F72">
+        <v>32104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71000</v>
+      </c>
+      <c r="B73">
+        <v>30304</v>
+      </c>
+      <c r="C73">
+        <v>37014</v>
+      </c>
+      <c r="D73">
+        <v>37670</v>
+      </c>
+      <c r="E73">
+        <v>36614</v>
+      </c>
+      <c r="F73">
+        <v>32104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72000</v>
+      </c>
+      <c r="B74">
+        <v>30304</v>
+      </c>
+      <c r="C74">
+        <v>37014</v>
+      </c>
+      <c r="D74">
+        <v>38673</v>
+      </c>
+      <c r="E74">
+        <v>37795</v>
+      </c>
+      <c r="F74">
+        <v>32104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73000</v>
+      </c>
+      <c r="B75">
+        <v>29840</v>
+      </c>
+      <c r="C75">
+        <v>37014</v>
+      </c>
+      <c r="D75">
+        <v>38673</v>
+      </c>
+      <c r="E75">
+        <v>37795</v>
+      </c>
+      <c r="F75">
+        <v>32104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74000</v>
+      </c>
+      <c r="B76">
+        <v>29840</v>
+      </c>
+      <c r="C76">
+        <v>37014</v>
+      </c>
+      <c r="D76">
+        <v>38673</v>
+      </c>
+      <c r="E76">
+        <v>37795</v>
+      </c>
+      <c r="F76">
+        <v>32104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75000</v>
+      </c>
+      <c r="B77">
+        <v>29840</v>
+      </c>
+      <c r="C77">
+        <v>37014</v>
+      </c>
+      <c r="D77">
+        <v>38673</v>
+      </c>
+      <c r="E77">
+        <v>37795</v>
+      </c>
+      <c r="F77">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76000</v>
+      </c>
+      <c r="B78">
+        <v>29840</v>
+      </c>
+      <c r="C78">
+        <v>37014</v>
+      </c>
+      <c r="D78">
+        <v>38673</v>
+      </c>
+      <c r="E78">
+        <v>37795</v>
+      </c>
+      <c r="F78">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77000</v>
+      </c>
+      <c r="B79">
+        <v>26039</v>
+      </c>
+      <c r="C79">
+        <v>37408</v>
+      </c>
+      <c r="D79">
+        <v>38673</v>
+      </c>
+      <c r="E79">
+        <v>37795</v>
+      </c>
+      <c r="F79">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78000</v>
+      </c>
+      <c r="B80">
+        <v>26039</v>
+      </c>
+      <c r="C80">
+        <v>37408</v>
+      </c>
+      <c r="D80">
+        <v>39504</v>
+      </c>
+      <c r="E80">
+        <v>38096</v>
+      </c>
+      <c r="F80">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79000</v>
+      </c>
+      <c r="B81">
+        <v>26039</v>
+      </c>
+      <c r="C81">
+        <v>37408</v>
+      </c>
+      <c r="D81">
+        <v>39504</v>
+      </c>
+      <c r="E81">
+        <v>38096</v>
+      </c>
+      <c r="F81">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B82">
+        <v>26039</v>
+      </c>
+      <c r="C82">
+        <v>37408</v>
+      </c>
+      <c r="D82">
+        <v>39504</v>
+      </c>
+      <c r="E82">
+        <v>38096</v>
+      </c>
+      <c r="F82">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81000</v>
+      </c>
+      <c r="B83">
+        <v>25059</v>
+      </c>
+      <c r="C83">
+        <v>37408</v>
+      </c>
+      <c r="D83">
+        <v>39504</v>
+      </c>
+      <c r="E83">
+        <v>38096</v>
+      </c>
+      <c r="F83">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82000</v>
+      </c>
+      <c r="B84">
+        <v>25059</v>
+      </c>
+      <c r="C84">
+        <v>37408</v>
+      </c>
+      <c r="D84">
+        <v>39504</v>
+      </c>
+      <c r="E84">
+        <v>38096</v>
+      </c>
+      <c r="F84">
+        <v>36473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83000</v>
+      </c>
+      <c r="B85">
+        <v>25059</v>
+      </c>
+      <c r="C85">
+        <v>37196</v>
+      </c>
+      <c r="D85">
+        <v>39504</v>
+      </c>
+      <c r="E85">
+        <v>38096</v>
+      </c>
+      <c r="F85">
+        <v>36473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84000</v>
+      </c>
+      <c r="B86">
+        <v>25059</v>
+      </c>
+      <c r="C86">
+        <v>37196</v>
+      </c>
+      <c r="D86">
+        <v>39477</v>
+      </c>
+      <c r="E86">
+        <v>38096</v>
+      </c>
+      <c r="F86">
+        <v>36473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85000</v>
+      </c>
+      <c r="B87">
+        <v>27229</v>
+      </c>
+      <c r="C87">
+        <v>37196</v>
+      </c>
+      <c r="D87">
+        <v>39477</v>
+      </c>
+      <c r="E87">
+        <v>40026</v>
+      </c>
+      <c r="F87">
+        <v>36473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86000</v>
+      </c>
+      <c r="B88">
+        <v>27229</v>
+      </c>
+      <c r="C88">
+        <v>37196</v>
+      </c>
+      <c r="D88">
+        <v>39477</v>
+      </c>
+      <c r="E88">
+        <v>40026</v>
+      </c>
+      <c r="F88">
+        <v>36473</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87000</v>
+      </c>
+      <c r="B89">
+        <v>27229</v>
+      </c>
+      <c r="C89">
+        <v>37196</v>
+      </c>
+      <c r="D89">
+        <v>39477</v>
+      </c>
+      <c r="E89">
+        <v>40026</v>
+      </c>
+      <c r="F89">
+        <v>37013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88000</v>
+      </c>
+      <c r="B90">
+        <v>27229</v>
+      </c>
+      <c r="C90">
+        <v>37196</v>
+      </c>
+      <c r="D90">
+        <v>39477</v>
+      </c>
+      <c r="E90">
+        <v>40026</v>
+      </c>
+      <c r="F90">
+        <v>37013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89000</v>
+      </c>
+      <c r="B91">
+        <v>26338</v>
+      </c>
+      <c r="C91">
+        <v>39167</v>
+      </c>
+      <c r="D91">
+        <v>39477</v>
+      </c>
+      <c r="E91">
+        <v>40026</v>
+      </c>
+      <c r="F91">
+        <v>37013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90000</v>
+      </c>
+      <c r="B92">
+        <v>26338</v>
+      </c>
+      <c r="C92">
+        <v>39167</v>
+      </c>
+      <c r="D92">
+        <v>38894</v>
+      </c>
+      <c r="E92">
+        <v>40026</v>
+      </c>
+      <c r="F92">
+        <v>37013</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91000</v>
+      </c>
+      <c r="B93">
+        <v>26338</v>
+      </c>
+      <c r="C93">
+        <v>39167</v>
+      </c>
+      <c r="D93">
+        <v>38894</v>
+      </c>
+      <c r="E93">
+        <v>40795</v>
+      </c>
+      <c r="F93">
+        <v>37013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92000</v>
+      </c>
+      <c r="B94">
+        <v>26338</v>
+      </c>
+      <c r="C94">
+        <v>39167</v>
+      </c>
+      <c r="D94">
+        <v>38894</v>
+      </c>
+      <c r="E94">
+        <v>40795</v>
+      </c>
+      <c r="F94">
+        <v>38631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93000</v>
+      </c>
+      <c r="B95">
+        <v>25185</v>
+      </c>
+      <c r="C95">
+        <v>39167</v>
+      </c>
+      <c r="D95">
+        <v>38894</v>
+      </c>
+      <c r="E95">
+        <v>40795</v>
+      </c>
+      <c r="F95">
+        <v>38631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94000</v>
+      </c>
+      <c r="B96">
+        <v>25185</v>
+      </c>
+      <c r="C96">
+        <v>38093</v>
+      </c>
+      <c r="D96">
+        <v>38894</v>
+      </c>
+      <c r="E96">
+        <v>40795</v>
+      </c>
+      <c r="F96">
+        <v>38631</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95000</v>
+      </c>
+      <c r="B97">
+        <v>24925</v>
+      </c>
+      <c r="C97">
+        <v>38093</v>
+      </c>
+      <c r="D97">
+        <v>38894</v>
+      </c>
+      <c r="E97">
+        <v>40795</v>
+      </c>
+      <c r="F97">
+        <v>38631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96000</v>
+      </c>
+      <c r="B98">
+        <v>24925</v>
+      </c>
+      <c r="C98">
+        <v>38093</v>
+      </c>
+      <c r="D98">
+        <v>38551</v>
+      </c>
+      <c r="E98">
+        <v>40795</v>
+      </c>
+      <c r="F98">
+        <v>38631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97000</v>
+      </c>
+      <c r="B99">
+        <v>23686</v>
+      </c>
+      <c r="C99">
+        <v>38093</v>
+      </c>
+      <c r="D99">
+        <v>38551</v>
+      </c>
+      <c r="E99">
+        <v>41400</v>
+      </c>
+      <c r="F99">
+        <v>37743</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98000</v>
+      </c>
+      <c r="B100">
+        <v>23686</v>
+      </c>
+      <c r="C100">
+        <v>37312</v>
+      </c>
+      <c r="D100">
+        <v>38551</v>
+      </c>
+      <c r="E100">
+        <v>41400</v>
+      </c>
+      <c r="F100">
+        <v>37743</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99000</v>
+      </c>
+      <c r="B101">
+        <v>23686</v>
+      </c>
+      <c r="C101">
+        <v>37312</v>
+      </c>
+      <c r="D101">
+        <v>38551</v>
+      </c>
+      <c r="E101">
+        <v>41400</v>
+      </c>
+      <c r="F101">
+        <v>37743</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B102">
+        <v>23686</v>
+      </c>
+      <c r="C102">
+        <v>37312</v>
+      </c>
+      <c r="D102">
+        <v>37812</v>
+      </c>
+      <c r="E102">
+        <v>41400</v>
+      </c>
+      <c r="F102">
+        <v>37743</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101000</v>
+      </c>
+      <c r="B103">
+        <v>25406</v>
+      </c>
+      <c r="C103">
+        <v>37312</v>
+      </c>
+      <c r="D103">
+        <v>37812</v>
+      </c>
+      <c r="E103">
+        <v>41400</v>
+      </c>
+      <c r="F103">
+        <v>38016</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102000</v>
+      </c>
+      <c r="B104">
+        <v>25406</v>
+      </c>
+      <c r="C104">
+        <v>35862</v>
+      </c>
+      <c r="D104">
+        <v>37812</v>
+      </c>
+      <c r="E104">
+        <v>41400</v>
+      </c>
+      <c r="F104">
+        <v>38016</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103000</v>
+      </c>
+      <c r="B105">
+        <v>25406</v>
+      </c>
+      <c r="C105">
+        <v>35862</v>
+      </c>
+      <c r="D105">
+        <v>37812</v>
+      </c>
+      <c r="E105">
+        <v>43725</v>
+      </c>
+      <c r="F105">
+        <v>38016</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104000</v>
+      </c>
+      <c r="B106">
+        <v>25406</v>
+      </c>
+      <c r="C106">
+        <v>35862</v>
+      </c>
+      <c r="D106">
+        <v>36616</v>
+      </c>
+      <c r="E106">
+        <v>43725</v>
+      </c>
+      <c r="F106">
+        <v>38016</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105000</v>
+      </c>
+      <c r="B107">
+        <v>24158</v>
+      </c>
+      <c r="C107">
+        <v>35862</v>
+      </c>
+      <c r="D107">
+        <v>36616</v>
+      </c>
+      <c r="E107">
+        <v>43725</v>
+      </c>
+      <c r="F107">
+        <v>38016</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106000</v>
+      </c>
+      <c r="B108">
+        <v>24158</v>
+      </c>
+      <c r="C108">
+        <v>34680</v>
+      </c>
+      <c r="D108">
+        <v>36616</v>
+      </c>
+      <c r="E108">
+        <v>43725</v>
+      </c>
+      <c r="F108">
+        <v>38420</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107000</v>
+      </c>
+      <c r="B109">
+        <v>24158</v>
+      </c>
+      <c r="C109">
+        <v>34680</v>
+      </c>
+      <c r="D109">
+        <v>36616</v>
+      </c>
+      <c r="E109">
+        <v>43725</v>
+      </c>
+      <c r="F109">
+        <v>38420</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108000</v>
+      </c>
+      <c r="B110">
+        <v>22513</v>
+      </c>
+      <c r="C110">
+        <v>34680</v>
+      </c>
+      <c r="D110">
+        <v>36616</v>
+      </c>
+      <c r="E110">
+        <v>43725</v>
+      </c>
+      <c r="F110">
+        <v>38420</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109000</v>
+      </c>
+      <c r="B111">
+        <v>22513</v>
+      </c>
+      <c r="C111">
+        <v>34680</v>
+      </c>
+      <c r="D111">
+        <v>36188</v>
+      </c>
+      <c r="E111">
+        <v>43725</v>
+      </c>
+      <c r="F111">
+        <v>38420</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110000</v>
+      </c>
+      <c r="B112">
+        <v>18576</v>
+      </c>
+      <c r="C112">
+        <v>34680</v>
+      </c>
+      <c r="D112">
+        <v>36188</v>
+      </c>
+      <c r="E112">
+        <v>43725</v>
+      </c>
+      <c r="F112">
+        <v>38420</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111000</v>
+      </c>
+      <c r="B113">
+        <v>18031</v>
+      </c>
+      <c r="C113">
+        <v>33829</v>
+      </c>
+      <c r="D113">
+        <v>36188</v>
+      </c>
+      <c r="E113">
+        <v>45809</v>
+      </c>
+      <c r="F113">
+        <v>38420</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112000</v>
+      </c>
+      <c r="B114">
+        <v>18031</v>
+      </c>
+      <c r="C114">
+        <v>33829</v>
+      </c>
+      <c r="D114">
+        <v>36188</v>
+      </c>
+      <c r="E114">
+        <v>45809</v>
+      </c>
+      <c r="F114">
+        <v>35226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113000</v>
+      </c>
+      <c r="B115">
+        <v>17203</v>
+      </c>
+      <c r="C115">
+        <v>33829</v>
+      </c>
+      <c r="D115">
+        <v>34703</v>
+      </c>
+      <c r="E115">
+        <v>45809</v>
+      </c>
+      <c r="F115">
+        <v>35226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114000</v>
+      </c>
+      <c r="B116">
+        <v>16581</v>
+      </c>
+      <c r="C116">
+        <v>33829</v>
+      </c>
+      <c r="D116">
+        <v>34703</v>
+      </c>
+      <c r="E116">
+        <v>45809</v>
+      </c>
+      <c r="F116">
+        <v>35226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115000</v>
+      </c>
+      <c r="B117">
+        <v>16581</v>
+      </c>
+      <c r="C117">
+        <v>33829</v>
+      </c>
+      <c r="D117">
+        <v>34703</v>
+      </c>
+      <c r="E117">
+        <v>45809</v>
+      </c>
+      <c r="F117">
+        <v>35226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116000</v>
+      </c>
+      <c r="B118">
+        <v>13751</v>
+      </c>
+      <c r="C118">
+        <v>31880</v>
+      </c>
+      <c r="D118">
+        <v>34703</v>
+      </c>
+      <c r="E118">
+        <v>45809</v>
+      </c>
+      <c r="F118">
+        <v>35226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117000</v>
+      </c>
+      <c r="B119">
+        <v>13751</v>
+      </c>
+      <c r="C119">
+        <v>31880</v>
+      </c>
+      <c r="D119">
+        <v>34703</v>
+      </c>
+      <c r="E119">
+        <v>45809</v>
+      </c>
+      <c r="F119">
+        <v>35226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118000</v>
+      </c>
+      <c r="B120">
+        <v>13751</v>
+      </c>
+      <c r="C120">
+        <v>31880</v>
+      </c>
+      <c r="D120">
+        <v>33329</v>
+      </c>
+      <c r="E120">
+        <v>45809</v>
+      </c>
+      <c r="F120">
+        <v>35788</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119000</v>
+      </c>
+      <c r="B121">
+        <v>12945</v>
+      </c>
+      <c r="C121">
+        <v>31880</v>
+      </c>
+      <c r="D121">
+        <v>33329</v>
+      </c>
+      <c r="E121">
+        <v>45809</v>
+      </c>
+      <c r="F121">
+        <v>35788</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120000</v>
+      </c>
+      <c r="B122">
+        <v>11957</v>
+      </c>
+      <c r="C122">
+        <v>28765</v>
+      </c>
+      <c r="D122">
+        <v>33329</v>
+      </c>
+      <c r="E122">
+        <v>49466</v>
+      </c>
+      <c r="F122">
+        <v>35788</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121000</v>
+      </c>
+      <c r="B123">
+        <v>11957</v>
+      </c>
+      <c r="C123">
+        <v>28765</v>
+      </c>
+      <c r="D123">
+        <v>33329</v>
+      </c>
+      <c r="E123">
+        <v>49466</v>
+      </c>
+      <c r="F123">
+        <v>35788</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122000</v>
+      </c>
+      <c r="B124">
+        <v>13325</v>
+      </c>
+      <c r="C124">
+        <v>27625</v>
+      </c>
+      <c r="D124">
+        <v>33329</v>
+      </c>
+      <c r="E124">
+        <v>49466</v>
+      </c>
+      <c r="F124">
+        <v>35788</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123000</v>
+      </c>
+      <c r="B125">
+        <v>13325</v>
+      </c>
+      <c r="C125">
+        <v>27625</v>
+      </c>
+      <c r="D125">
+        <v>32160</v>
+      </c>
+      <c r="E125">
+        <v>49466</v>
+      </c>
+      <c r="F125">
+        <v>36122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124000</v>
+      </c>
+      <c r="B126">
+        <v>12293</v>
+      </c>
+      <c r="C126">
+        <v>27625</v>
+      </c>
+      <c r="D126">
+        <v>32160</v>
+      </c>
+      <c r="E126">
+        <v>49466</v>
+      </c>
+      <c r="F126">
+        <v>36122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125000</v>
+      </c>
+      <c r="B127">
+        <v>11969</v>
+      </c>
+      <c r="C127">
+        <v>25873</v>
+      </c>
+      <c r="D127">
+        <v>32160</v>
+      </c>
+      <c r="E127">
+        <v>49466</v>
+      </c>
+      <c r="F127">
+        <v>36122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126000</v>
+      </c>
+      <c r="B128">
+        <v>11113</v>
+      </c>
+      <c r="C128">
+        <v>25873</v>
+      </c>
+      <c r="D128">
+        <v>32160</v>
+      </c>
+      <c r="E128">
+        <v>49466</v>
+      </c>
+      <c r="F128">
+        <v>36122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127000</v>
+      </c>
+      <c r="B129">
+        <v>9511</v>
+      </c>
+      <c r="C129">
+        <v>24356</v>
+      </c>
+      <c r="D129">
+        <v>31259</v>
+      </c>
+      <c r="E129">
+        <v>49466</v>
+      </c>
+      <c r="F129">
+        <v>35171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128000</v>
+      </c>
+      <c r="B130">
+        <v>9291</v>
+      </c>
+      <c r="C130">
+        <v>24356</v>
+      </c>
+      <c r="D130">
+        <v>31259</v>
+      </c>
+      <c r="E130">
+        <v>49466</v>
+      </c>
+      <c r="F130">
+        <v>35171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129000</v>
+      </c>
+      <c r="B131">
+        <v>9291</v>
+      </c>
+      <c r="C131">
+        <v>24356</v>
+      </c>
+      <c r="D131">
+        <v>31259</v>
+      </c>
+      <c r="E131">
+        <v>49466</v>
+      </c>
+      <c r="F131">
+        <v>35171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130000</v>
+      </c>
+      <c r="B132">
+        <v>7608</v>
+      </c>
+      <c r="C132">
+        <v>22248</v>
+      </c>
+      <c r="D132">
+        <v>31259</v>
+      </c>
+      <c r="E132">
+        <v>53738</v>
+      </c>
+      <c r="F132">
+        <v>35171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131000</v>
+      </c>
+      <c r="B133">
+        <v>6865</v>
+      </c>
+      <c r="C133">
+        <v>22248</v>
+      </c>
+      <c r="D133">
+        <v>30808</v>
+      </c>
+      <c r="E133">
+        <v>53738</v>
+      </c>
+      <c r="F133">
+        <v>35171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132000</v>
+      </c>
+      <c r="C134">
+        <v>22248</v>
+      </c>
+      <c r="D134">
+        <v>30808</v>
+      </c>
+      <c r="E134">
+        <v>53738</v>
+      </c>
+      <c r="F134">
+        <v>35019</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133000</v>
+      </c>
+      <c r="C135">
+        <v>20305</v>
+      </c>
+      <c r="D135">
+        <v>30808</v>
+      </c>
+      <c r="E135">
+        <v>53738</v>
+      </c>
+      <c r="F135">
+        <v>35019</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134000</v>
+      </c>
+      <c r="C136">
+        <v>20305</v>
+      </c>
+      <c r="D136">
+        <v>30808</v>
+      </c>
+      <c r="E136">
+        <v>53738</v>
+      </c>
+      <c r="F136">
+        <v>35019</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135000</v>
+      </c>
+      <c r="C137">
+        <v>20305</v>
+      </c>
+      <c r="D137">
+        <v>29794</v>
+      </c>
+      <c r="E137">
+        <v>53738</v>
+      </c>
+      <c r="F137">
+        <v>35019</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136000</v>
+      </c>
+      <c r="C138">
+        <v>19781</v>
+      </c>
+      <c r="D138">
+        <v>29794</v>
+      </c>
+      <c r="E138">
+        <v>53738</v>
+      </c>
+      <c r="F138">
+        <v>34985</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137000</v>
+      </c>
+      <c r="C139">
+        <v>19781</v>
+      </c>
+      <c r="D139">
+        <v>29794</v>
+      </c>
+      <c r="E139">
+        <v>53738</v>
+      </c>
+      <c r="F139">
+        <v>34985</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138000</v>
+      </c>
+      <c r="C140">
+        <v>19781</v>
+      </c>
+      <c r="D140">
+        <v>28848</v>
+      </c>
+      <c r="E140">
+        <v>53738</v>
+      </c>
+      <c r="F140">
+        <v>34985</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139000</v>
+      </c>
+      <c r="C141">
+        <v>19418</v>
+      </c>
+      <c r="D141">
+        <v>28848</v>
+      </c>
+      <c r="E141">
+        <v>53738</v>
+      </c>
+      <c r="F141">
+        <v>34985</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140000</v>
+      </c>
+      <c r="C142">
+        <v>19418</v>
+      </c>
+      <c r="D142">
+        <v>28848</v>
+      </c>
+      <c r="E142">
+        <v>58121</v>
+      </c>
+      <c r="F142">
+        <v>34985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141000</v>
+      </c>
+      <c r="C143">
+        <v>18656</v>
+      </c>
+      <c r="D143">
+        <v>28848</v>
+      </c>
+      <c r="E143">
+        <v>58121</v>
+      </c>
+      <c r="F143">
+        <v>34772</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142000</v>
+      </c>
+      <c r="C144">
+        <v>18656</v>
+      </c>
+      <c r="D144">
+        <v>28384</v>
+      </c>
+      <c r="E144">
+        <v>58121</v>
+      </c>
+      <c r="F144">
+        <v>34772</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143000</v>
+      </c>
+      <c r="C145">
+        <v>18359</v>
+      </c>
+      <c r="D145">
+        <v>28384</v>
+      </c>
+      <c r="E145">
+        <v>58121</v>
+      </c>
+      <c r="F145">
+        <v>34772</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144000</v>
+      </c>
+      <c r="C146">
+        <v>18359</v>
+      </c>
+      <c r="D146">
+        <v>28384</v>
+      </c>
+      <c r="E146">
+        <v>58121</v>
+      </c>
+      <c r="F146">
+        <v>34772</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145000</v>
+      </c>
+      <c r="C147">
+        <v>18110</v>
+      </c>
+      <c r="D147">
+        <v>28384</v>
+      </c>
+      <c r="E147">
+        <v>58121</v>
+      </c>
+      <c r="F147">
+        <v>34772</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146000</v>
+      </c>
+      <c r="C148">
+        <v>18110</v>
+      </c>
+      <c r="D148">
+        <v>27750</v>
+      </c>
+      <c r="F148">
+        <v>34160</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147000</v>
+      </c>
+      <c r="C149">
+        <v>17596</v>
+      </c>
+      <c r="D149">
+        <v>27750</v>
+      </c>
+      <c r="F149">
+        <v>34160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148000</v>
+      </c>
+      <c r="C150">
+        <v>17596</v>
+      </c>
+      <c r="D150">
+        <v>27750</v>
+      </c>
+      <c r="F150">
+        <v>34160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149000</v>
+      </c>
+      <c r="C151">
+        <v>17596</v>
+      </c>
+      <c r="D151">
+        <v>27750</v>
+      </c>
+      <c r="F151">
+        <v>34160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150000</v>
+      </c>
+      <c r="C152">
+        <v>16553</v>
+      </c>
+      <c r="D152">
+        <v>27639</v>
+      </c>
+      <c r="F152">
+        <v>34160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151000</v>
+      </c>
+      <c r="C153">
+        <v>16553</v>
+      </c>
+      <c r="D153">
+        <v>27639</v>
+      </c>
+      <c r="F153">
+        <v>32773</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152000</v>
+      </c>
+      <c r="C154">
+        <v>14999</v>
+      </c>
+      <c r="D154">
+        <v>27639</v>
+      </c>
+      <c r="F154">
+        <v>32773</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153000</v>
+      </c>
+      <c r="C155">
+        <v>14999</v>
+      </c>
+      <c r="D155">
+        <v>27639</v>
+      </c>
+      <c r="F155">
+        <v>32773</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154000</v>
+      </c>
+      <c r="C156">
+        <v>14278</v>
+      </c>
+      <c r="D156">
+        <v>27639</v>
+      </c>
+      <c r="F156">
+        <v>32773</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155000</v>
+      </c>
+      <c r="C157">
+        <v>13521</v>
+      </c>
+      <c r="D157">
+        <v>27415</v>
+      </c>
+      <c r="F157">
+        <v>32406</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156000</v>
+      </c>
+      <c r="C158">
+        <v>12880</v>
+      </c>
+      <c r="D158">
+        <v>27415</v>
+      </c>
+      <c r="F158">
+        <v>32406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157000</v>
+      </c>
+      <c r="C159">
+        <v>11947</v>
+      </c>
+      <c r="D159">
+        <v>27415</v>
+      </c>
+      <c r="F159">
+        <v>32406</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158000</v>
+      </c>
+      <c r="C160">
+        <v>11947</v>
+      </c>
+      <c r="D160">
+        <v>26969</v>
+      </c>
+      <c r="F160">
+        <v>32406</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159000</v>
+      </c>
+      <c r="C161">
+        <v>11073</v>
+      </c>
+      <c r="D161">
+        <v>26969</v>
+      </c>
+      <c r="F161">
+        <v>32406</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160000</v>
+      </c>
+      <c r="C162">
+        <v>11073</v>
+      </c>
+      <c r="D162">
+        <v>26969</v>
+      </c>
+      <c r="F162">
+        <v>32101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161000</v>
+      </c>
+      <c r="C163">
+        <v>9265</v>
+      </c>
+      <c r="D163">
+        <v>26969</v>
+      </c>
+      <c r="F163">
+        <v>32101</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162000</v>
+      </c>
+      <c r="C164">
+        <v>9265</v>
+      </c>
+      <c r="D164">
+        <v>26902</v>
+      </c>
+      <c r="F164">
+        <v>32101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163000</v>
+      </c>
+      <c r="C165">
+        <v>7982</v>
+      </c>
+      <c r="D165">
+        <v>26902</v>
+      </c>
+      <c r="F165">
+        <v>32101</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164000</v>
+      </c>
+      <c r="D166">
+        <v>25733</v>
+      </c>
+      <c r="F166">
+        <v>31726</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165000</v>
+      </c>
+      <c r="D167">
+        <v>25733</v>
+      </c>
+      <c r="F167">
+        <v>31726</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166000</v>
+      </c>
+      <c r="D168">
+        <v>25733</v>
+      </c>
+      <c r="F168">
+        <v>31726</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167000</v>
+      </c>
+      <c r="D169">
+        <v>25733</v>
+      </c>
+      <c r="F169">
+        <v>31726</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168000</v>
+      </c>
+      <c r="D170">
+        <v>25315</v>
+      </c>
+      <c r="F170">
+        <v>31726</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169000</v>
+      </c>
+      <c r="D171">
+        <v>25315</v>
+      </c>
+      <c r="F171">
+        <v>33175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170000</v>
+      </c>
+      <c r="D172">
+        <v>25315</v>
+      </c>
+      <c r="F172">
+        <v>33175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171000</v>
+      </c>
+      <c r="D173">
+        <v>24857</v>
+      </c>
+      <c r="F173">
+        <v>33175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172000</v>
+      </c>
+      <c r="D174">
+        <v>24857</v>
+      </c>
+      <c r="F174">
+        <v>33175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173000</v>
+      </c>
+      <c r="D175">
+        <v>24857</v>
+      </c>
+      <c r="F175">
+        <v>33175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174000</v>
+      </c>
+      <c r="D176">
+        <v>24857</v>
+      </c>
+      <c r="F176">
+        <v>33175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175000</v>
+      </c>
+      <c r="D177">
+        <v>23654</v>
+      </c>
+      <c r="F177">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176000</v>
+      </c>
+      <c r="D178">
+        <v>23654</v>
+      </c>
+      <c r="F178">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177000</v>
+      </c>
+      <c r="D179">
+        <v>23654</v>
+      </c>
+      <c r="F179">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178000</v>
+      </c>
+      <c r="D180">
+        <v>22609</v>
+      </c>
+      <c r="F180">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179000</v>
+      </c>
+      <c r="D181">
+        <v>22609</v>
+      </c>
+      <c r="F181">
+        <v>33990</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180000</v>
+      </c>
+      <c r="D182">
+        <v>22609</v>
+      </c>
+      <c r="F182">
+        <v>33883</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181000</v>
+      </c>
+      <c r="D183">
+        <v>21712</v>
+      </c>
+      <c r="F183">
+        <v>33883</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182000</v>
+      </c>
+      <c r="D184">
+        <v>21712</v>
+      </c>
+      <c r="F184">
+        <v>33883</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183000</v>
+      </c>
+      <c r="D185">
+        <v>21469</v>
+      </c>
+      <c r="F185">
+        <v>33883</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184000</v>
+      </c>
+      <c r="D186">
+        <v>21469</v>
+      </c>
+      <c r="F186">
+        <v>33883</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185000</v>
+      </c>
+      <c r="D187">
+        <v>21469</v>
+      </c>
+      <c r="F187">
+        <v>33759</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186000</v>
+      </c>
+      <c r="D188">
+        <v>22172</v>
+      </c>
+      <c r="F188">
+        <v>33759</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187000</v>
+      </c>
+      <c r="D189">
+        <v>22172</v>
+      </c>
+      <c r="F189">
+        <v>33759</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188000</v>
+      </c>
+      <c r="D190">
+        <v>22172</v>
+      </c>
+      <c r="F190">
+        <v>33759</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189000</v>
+      </c>
+      <c r="D191">
+        <v>21032</v>
+      </c>
+      <c r="F191">
+        <v>33435</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190000</v>
+      </c>
+      <c r="D192">
+        <v>21032</v>
+      </c>
+      <c r="F192">
+        <v>33435</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>191000</v>
+      </c>
+      <c r="D193">
+        <v>21032</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>192000</v>
+      </c>
+      <c r="D194">
+        <v>20560</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>193000</v>
+      </c>
+      <c r="D195">
+        <v>20560</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>194000</v>
+      </c>
+      <c r="D196">
+        <v>20560</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>195000</v>
+      </c>
+      <c r="D197">
+        <v>19426</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>196000</v>
+      </c>
+      <c r="D198">
+        <v>19426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>197000</v>
+      </c>
+      <c r="D199">
+        <v>18703</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>198000</v>
+      </c>
+      <c r="D200">
+        <v>18703</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>199000</v>
+      </c>
+      <c r="D201">
+        <v>18186</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>200000</v>
+      </c>
+      <c r="D202">
+        <v>18186</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>201000</v>
+      </c>
+      <c r="D203">
+        <v>17548</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>202000</v>
+      </c>
+      <c r="D204">
+        <v>17548</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>203000</v>
+      </c>
+      <c r="D205">
+        <v>16264</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>204000</v>
+      </c>
+      <c r="D206">
+        <v>16264</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>205000</v>
+      </c>
+      <c r="D207">
+        <v>15490</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>206000</v>
+      </c>
+      <c r="D208">
+        <v>15490</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>207000</v>
+      </c>
+      <c r="D209">
+        <v>14434</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>208000</v>
+      </c>
+      <c r="D210">
+        <v>14434</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>209000</v>
+      </c>
+      <c r="D211">
+        <v>13977</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>210000</v>
+      </c>
+      <c r="D212">
+        <v>13977</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>211000</v>
+      </c>
+      <c r="D213">
+        <v>13042</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>212000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>214000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>217000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>218000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>219000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>220000</v>
       </c>
     </row>
   </sheetData>
